--- a/Products.xlsx
+++ b/Products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -50,37 +50,22 @@
     <t>City name</t>
   </si>
   <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
     <t>Postal code</t>
   </si>
   <si>
-    <t>Kherson</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Fishka</t>
-  </si>
-  <si>
-    <t>Phora</t>
-  </si>
-  <si>
-    <t>Demievska</t>
-  </si>
-  <si>
-    <t>LeSilpo</t>
-  </si>
-  <si>
-    <t>Suvorova</t>
-  </si>
-  <si>
-    <t>Dvorik</t>
-  </si>
-  <si>
-    <t>Strileckoi divizii</t>
-  </si>
-  <si>
-    <t>Uman'</t>
+    <t>behind house</t>
+  </si>
+  <si>
+    <t>Chernomorska</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Velosportas</t>
   </si>
 </sst>
 </file>
@@ -435,7 +420,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,102 +459,68 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>119</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>123</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>87</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45670</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -53,19 +53,22 @@
     <t>Chocolate</t>
   </si>
   <si>
+    <t>behind house</t>
+  </si>
+  <si>
+    <t>Chernomorska</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Velosportas</t>
+  </si>
+  <si>
+    <t>ghghgjg</t>
+  </si>
+  <si>
     <t>Postal code</t>
-  </si>
-  <si>
-    <t>behind house</t>
-  </si>
-  <si>
-    <t>Chernomorska</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Velosportas</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,33 +462,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3">
         <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="3"/>
     </row>
